--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1727,28 +1727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.6303971008365</v>
+        <v>297.0786169367499</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.3424957487562</v>
+        <v>406.4760698764536</v>
       </c>
       <c r="AC2" t="n">
-        <v>325.0473522948544</v>
+        <v>367.6825642601912</v>
       </c>
       <c r="AD2" t="n">
-        <v>262630.3971008366</v>
+        <v>297078.6169367499</v>
       </c>
       <c r="AE2" t="n">
-        <v>359342.4957487562</v>
+        <v>406476.0698764536</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.577669700142276e-06</v>
+        <v>5.157799092523644e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.495833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>325047.3522948544</v>
+        <v>367682.5642601912</v>
       </c>
     </row>
     <row r="3">
@@ -1833,28 +1833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.523950978548</v>
+        <v>128.3387135104265</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.2777927662875</v>
+        <v>175.5986897293317</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.8898771058295</v>
+        <v>158.8397972359221</v>
       </c>
       <c r="AD3" t="n">
-        <v>102523.950978548</v>
+        <v>128338.7135104265</v>
       </c>
       <c r="AE3" t="n">
-        <v>140277.7927662875</v>
+        <v>175598.6897293316</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.26923738761679e-06</v>
+        <v>9.038136446016599e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.847916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>126889.8771058295</v>
+        <v>158839.7972359221</v>
       </c>
     </row>
     <row r="4">
@@ -1939,28 +1939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.3759412608018</v>
+        <v>127.1907037926804</v>
       </c>
       <c r="AB4" t="n">
-        <v>138.7070352238536</v>
+        <v>174.0279321868978</v>
       </c>
       <c r="AC4" t="n">
-        <v>125.4690304586729</v>
+        <v>157.4189505887657</v>
       </c>
       <c r="AD4" t="n">
-        <v>101375.9412608018</v>
+        <v>127190.7037926803</v>
       </c>
       <c r="AE4" t="n">
-        <v>138707.0352238536</v>
+        <v>174027.9321868978</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.338532490681852e-06</v>
+        <v>9.138036730185118e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.795833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>125469.0304586729</v>
+        <v>157418.9505887656</v>
       </c>
     </row>
   </sheetData>
@@ -2236,28 +2236,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.5257620151795</v>
+        <v>184.8633735347599</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.2701853689889</v>
+        <v>252.93822326659</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.4387852215643</v>
+        <v>228.7981542391263</v>
       </c>
       <c r="AD2" t="n">
-        <v>159525.7620151795</v>
+        <v>184863.3735347599</v>
       </c>
       <c r="AE2" t="n">
-        <v>218270.1853689889</v>
+        <v>252938.22326659</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.831556505733346e-06</v>
+        <v>7.073216966297171e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.508333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>197438.7852215643</v>
+        <v>228798.1542391263</v>
       </c>
     </row>
     <row r="3">
@@ -2342,28 +2342,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.48091829522137</v>
+        <v>123.6478481056585</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.7459370829492</v>
+        <v>169.1804407361551</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.885973964899</v>
+        <v>153.0340969185833</v>
       </c>
       <c r="AD3" t="n">
-        <v>98480.91829522137</v>
+        <v>123647.8481056585</v>
       </c>
       <c r="AE3" t="n">
-        <v>134745.9370829492</v>
+        <v>169180.4407361551</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.344483382821486e-06</v>
+        <v>9.288084999629331e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.95625</v>
       </c>
       <c r="AH3" t="n">
-        <v>121885.973964899</v>
+        <v>153034.0969185833</v>
       </c>
     </row>
   </sheetData>
@@ -2639,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.2491042018127</v>
+        <v>138.4657190585114</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.6889088004885</v>
+        <v>189.4549054921675</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.6393006623867</v>
+        <v>171.3735952136784</v>
       </c>
       <c r="AD2" t="n">
-        <v>115249.1042018127</v>
+        <v>138465.7190585114</v>
       </c>
       <c r="AE2" t="n">
-        <v>157688.9088004885</v>
+        <v>189454.9054921675</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.780821486578852e-06</v>
+        <v>8.943644383385107e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.068750000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>142639.3006623867</v>
+        <v>171373.5952136784</v>
       </c>
     </row>
   </sheetData>
@@ -2936,28 +2936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.7118559401443</v>
+        <v>128.6056602747855</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.2713808582966</v>
+        <v>175.9639380691875</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.5977613518654</v>
+        <v>159.1701867868516</v>
       </c>
       <c r="AD2" t="n">
-        <v>104711.8559401443</v>
+        <v>128605.6602747855</v>
       </c>
       <c r="AE2" t="n">
-        <v>143271.3808582966</v>
+        <v>175963.9380691875</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.154278668996485e-06</v>
+        <v>9.300924232549826e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.454166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>129597.7613518654</v>
+        <v>159170.1867868516</v>
       </c>
     </row>
     <row r="3">
@@ -3042,28 +3042,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.1289658386285</v>
+        <v>129.0227701732697</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.8420890229924</v>
+        <v>176.5346462338833</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.1140019303168</v>
+        <v>159.6864273653029</v>
       </c>
       <c r="AD3" t="n">
-        <v>105128.9658386285</v>
+        <v>129022.7701732697</v>
       </c>
       <c r="AE3" t="n">
-        <v>143842.0890229924</v>
+        <v>176534.6462338833</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.15202323323915e-06</v>
+        <v>9.297515606093565e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.456250000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>130114.0019303168</v>
+        <v>159686.4273653029</v>
       </c>
     </row>
   </sheetData>
@@ -3339,28 +3339,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.3429675113694</v>
+        <v>151.4928732053619</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.026801422895</v>
+        <v>207.279232513359</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.1814365152192</v>
+        <v>187.4967934805731</v>
       </c>
       <c r="AD2" t="n">
-        <v>121342.9675113694</v>
+        <v>151492.8732053619</v>
       </c>
       <c r="AE2" t="n">
-        <v>166026.801422895</v>
+        <v>207279.232513359</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.277871437298517e-06</v>
+        <v>8.341612421222181e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.904166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>150181.4365152192</v>
+        <v>187496.7934805731</v>
       </c>
     </row>
   </sheetData>
@@ -3636,28 +3636,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.0641344531033</v>
+        <v>209.8755242082925</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.8987161600427</v>
+        <v>287.1609512763098</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.9076807932697</v>
+        <v>259.7547131195097</v>
       </c>
       <c r="AD2" t="n">
-        <v>176064.1344531033</v>
+        <v>209875.5242082925</v>
       </c>
       <c r="AE2" t="n">
-        <v>240898.7161600427</v>
+        <v>287160.9512763098</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.497410851561343e-06</v>
+        <v>6.556713616079501e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.927083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>217907.6807932697</v>
+        <v>259754.7131195097</v>
       </c>
     </row>
     <row r="3">
@@ -3742,28 +3742,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.69225556750895</v>
+        <v>123.029462670258</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.6668539455496</v>
+        <v>168.3343385022005</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.9098770076298</v>
+        <v>152.2687454943251</v>
       </c>
       <c r="AD3" t="n">
-        <v>97692.25556750895</v>
+        <v>123029.462670258</v>
       </c>
       <c r="AE3" t="n">
-        <v>133666.8539455496</v>
+        <v>168334.3385022005</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.421945547377624e-06</v>
+        <v>9.362466361638712e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.852083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>120909.8770076298</v>
+        <v>152268.7454943252</v>
       </c>
     </row>
   </sheetData>
@@ -4039,28 +4039,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.3926070734009</v>
+        <v>165.1340549975756</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.2501380980092</v>
+        <v>225.9436992479238</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.5701249181891</v>
+        <v>204.3799497057405</v>
       </c>
       <c r="AD2" t="n">
-        <v>135392.6070734009</v>
+        <v>165134.0549975756</v>
       </c>
       <c r="AE2" t="n">
-        <v>185250.1380980092</v>
+        <v>225943.6992479238</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.878636836999183e-06</v>
+        <v>7.81672219333737e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.64375</v>
       </c>
       <c r="AH2" t="n">
-        <v>167570.1249181891</v>
+        <v>204379.9497057405</v>
       </c>
     </row>
   </sheetData>
@@ -4336,28 +4336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.4803880733215</v>
+        <v>138.0094343386478</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.2688733632396</v>
+        <v>188.8305966085893</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.450230010727</v>
+        <v>170.8088694937256</v>
       </c>
       <c r="AD2" t="n">
-        <v>113480.3880733215</v>
+        <v>138009.4343386478</v>
       </c>
       <c r="AE2" t="n">
-        <v>155268.8733632396</v>
+        <v>188830.5966085893</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.918712601602519e-06</v>
+        <v>8.78836014225398e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.472916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>140450.230010727</v>
+        <v>170808.8694937256</v>
       </c>
     </row>
     <row r="3">
@@ -4442,28 +4442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.9175567691349</v>
+        <v>121.3840719216315</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.5528298074014</v>
+        <v>166.0830422904142</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.8523492082839</v>
+        <v>150.2323098332769</v>
       </c>
       <c r="AD3" t="n">
-        <v>104917.5567691349</v>
+        <v>121384.0719216315</v>
       </c>
       <c r="AE3" t="n">
-        <v>143552.8298074014</v>
+        <v>166083.0422904142</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.326095420890542e-06</v>
+        <v>9.393259750101227e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.120833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>129852.3492082839</v>
+        <v>150232.3098332769</v>
       </c>
     </row>
   </sheetData>
@@ -4739,28 +4739,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.29294488771</v>
+        <v>169.2832119066292</v>
       </c>
       <c r="AB2" t="n">
-        <v>197.4279729507331</v>
+        <v>231.6207587787719</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.5857243042713</v>
+        <v>209.5151986427694</v>
       </c>
       <c r="AD2" t="n">
-        <v>144292.94488771</v>
+        <v>169283.2119066292</v>
       </c>
       <c r="AE2" t="n">
-        <v>197427.9729507331</v>
+        <v>231620.7587787719</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.20606507590052e-06</v>
+        <v>7.655219236782024e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.095833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>178585.7243042713</v>
+        <v>209515.1986427694</v>
       </c>
     </row>
     <row r="3">
@@ -4845,28 +4845,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.67493684985803</v>
+        <v>122.6651143602262</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.6431577120117</v>
+        <v>167.8358210705023</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.8884423093629</v>
+        <v>151.8178058666344</v>
       </c>
       <c r="AD3" t="n">
-        <v>97674.93684985803</v>
+        <v>122665.1143602262</v>
       </c>
       <c r="AE3" t="n">
-        <v>133643.1577120117</v>
+        <v>167835.8210705023</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.351271419560365e-06</v>
+        <v>9.339179291882412e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.997916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>120888.4423093629</v>
+        <v>151817.8058666344</v>
       </c>
     </row>
   </sheetData>
@@ -5142,28 +5142,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.0539675585374</v>
+        <v>269.7932618910428</v>
       </c>
       <c r="AB2" t="n">
-        <v>310.6652553275366</v>
+        <v>369.1430433580085</v>
       </c>
       <c r="AC2" t="n">
-        <v>281.0157993805929</v>
+        <v>333.9125493954348</v>
       </c>
       <c r="AD2" t="n">
-        <v>227053.9675585374</v>
+        <v>269793.2618910428</v>
       </c>
       <c r="AE2" t="n">
-        <v>310665.2553275366</v>
+        <v>369143.0433580086</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.868166897168263e-06</v>
+        <v>5.596357518016416e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.920833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>281015.7993805928</v>
+        <v>333912.5493954348</v>
       </c>
     </row>
     <row r="3">
@@ -5248,28 +5248,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.4373974931425</v>
+        <v>126.098042263558</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.422878235314</v>
+        <v>172.5329044779289</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.3074316107934</v>
+        <v>156.0666062260557</v>
       </c>
       <c r="AD3" t="n">
-        <v>100437.3974931425</v>
+        <v>126098.042263558</v>
       </c>
       <c r="AE3" t="n">
-        <v>137422.878235314</v>
+        <v>172532.9044779289</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.341999693635159e-06</v>
+        <v>9.175430794032009e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.83125</v>
       </c>
       <c r="AH3" t="n">
-        <v>124307.4316107934</v>
+        <v>156066.6062260557</v>
       </c>
     </row>
     <row r="4">
@@ -5354,28 +5354,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>100.7010021847003</v>
+        <v>126.3616469551159</v>
       </c>
       <c r="AB4" t="n">
-        <v>137.7835538037214</v>
+        <v>172.8935800463364</v>
       </c>
       <c r="AC4" t="n">
-        <v>124.6336848091635</v>
+        <v>156.3928594244258</v>
       </c>
       <c r="AD4" t="n">
-        <v>100701.0021847003</v>
+        <v>126361.6469551159</v>
       </c>
       <c r="AE4" t="n">
-        <v>137783.5538037214</v>
+        <v>172893.5800463363</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.341411491103752e-06</v>
+        <v>9.174579798781218e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.83125</v>
       </c>
       <c r="AH4" t="n">
-        <v>124633.6848091635</v>
+        <v>156392.8594244258</v>
       </c>
     </row>
   </sheetData>
@@ -5651,28 +5651,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.6931751820704</v>
+        <v>128.8100106810747</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.2458210209631</v>
+        <v>176.2435393103759</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.5746409095335</v>
+        <v>159.4231032780038</v>
       </c>
       <c r="AD2" t="n">
-        <v>104693.1751820704</v>
+        <v>128810.0106810747</v>
       </c>
       <c r="AE2" t="n">
-        <v>143245.8210209631</v>
+        <v>176243.5393103759</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.217251332223754e-06</v>
+        <v>9.336350667187846e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.33125</v>
       </c>
       <c r="AH2" t="n">
-        <v>129574.6409095336</v>
+        <v>159423.1032780038</v>
       </c>
     </row>
     <row r="3">
@@ -5757,28 +5757,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.7617381176147</v>
+        <v>128.878573616619</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.3396318541579</v>
+        <v>176.3373501435708</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.6594985684727</v>
+        <v>159.5079609369429</v>
       </c>
       <c r="AD3" t="n">
-        <v>104761.7381176147</v>
+        <v>128878.573616619</v>
       </c>
       <c r="AE3" t="n">
-        <v>143339.631854158</v>
+        <v>176337.3501435708</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.231887270980812e-06</v>
+        <v>9.358329231231276e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.318750000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>129659.4985684727</v>
+        <v>159507.9609369429</v>
       </c>
     </row>
   </sheetData>
@@ -6054,28 +6054,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.7149108819317</v>
+        <v>129.2894868581727</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.6438048813103</v>
+        <v>176.899579768877</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.8392031523324</v>
+        <v>160.0165321559043</v>
       </c>
       <c r="AD2" t="n">
-        <v>105714.9108819317</v>
+        <v>129289.4868581727</v>
       </c>
       <c r="AE2" t="n">
-        <v>144643.8048813103</v>
+        <v>176899.579768877</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.952323549243373e-06</v>
+        <v>9.129356891944165e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AH2" t="n">
-        <v>130839.2031523324</v>
+        <v>160016.5321559043</v>
       </c>
     </row>
   </sheetData>
@@ -9844,28 +9844,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.5379361172295</v>
+        <v>140.4574650414829</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.8205896032978</v>
+        <v>192.1801002156991</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.4720982447184</v>
+        <v>173.8387011776317</v>
       </c>
       <c r="AD2" t="n">
-        <v>117537.9361172295</v>
+        <v>140457.4650414829</v>
       </c>
       <c r="AE2" t="n">
-        <v>160820.5896032978</v>
+        <v>192180.1002156991</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.567703610614606e-06</v>
+        <v>8.699427066596325e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.414583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>145472.0982447185</v>
+        <v>173838.7011776317</v>
       </c>
     </row>
   </sheetData>
@@ -10141,28 +10141,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.7028846405206</v>
+        <v>192.076324581772</v>
       </c>
       <c r="AB2" t="n">
-        <v>213.0395558915364</v>
+        <v>262.8073011020489</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.7073596802037</v>
+        <v>237.7253411373098</v>
       </c>
       <c r="AD2" t="n">
-        <v>155702.8846405206</v>
+        <v>192076.324581772</v>
       </c>
       <c r="AE2" t="n">
-        <v>213039.5558915364</v>
+        <v>262807.301102049</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.273927455843715e-06</v>
+        <v>6.965117569370607e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>192707.3596802037</v>
+        <v>237725.3411373098</v>
       </c>
     </row>
   </sheetData>
@@ -10438,28 +10438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.6262476686447</v>
+        <v>147.517834586308</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.7826419484032</v>
+        <v>201.8404093084449</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.7697020853111</v>
+        <v>182.577043928898</v>
       </c>
       <c r="AD2" t="n">
-        <v>122626.2476686447</v>
+        <v>147517.834586308</v>
       </c>
       <c r="AE2" t="n">
-        <v>167782.6419484032</v>
+        <v>201840.4093084449</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.60362800486905e-06</v>
+        <v>8.278692451456725e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.720833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>151769.7020853111</v>
+        <v>182577.043928898</v>
       </c>
     </row>
     <row r="3">
@@ -10544,28 +10544,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.6294185119779</v>
+        <v>122.2238992989711</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.5268304490824</v>
+        <v>167.2321311586586</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.7333925957416</v>
+        <v>151.2717312726928</v>
       </c>
       <c r="AD3" t="n">
-        <v>105629.4185119779</v>
+        <v>122223.8992989711</v>
       </c>
       <c r="AE3" t="n">
-        <v>144526.8304490824</v>
+        <v>167232.1311586586</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.337125031043216e-06</v>
+        <v>9.362346878281213e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.058333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>130733.3925957416</v>
+        <v>151271.7312726928</v>
       </c>
     </row>
   </sheetData>
@@ -10841,28 +10841,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.4988362434778</v>
+        <v>238.4441754057117</v>
       </c>
       <c r="AB2" t="n">
-        <v>279.8043296001219</v>
+        <v>326.2498402045382</v>
       </c>
       <c r="AC2" t="n">
-        <v>253.1001970910114</v>
+        <v>295.1130133500406</v>
       </c>
       <c r="AD2" t="n">
-        <v>204498.8362434778</v>
+        <v>238444.1754057117</v>
       </c>
       <c r="AE2" t="n">
-        <v>279804.3296001219</v>
+        <v>326249.8402045382</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.169903315946467e-06</v>
+        <v>6.055404393585311e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.408333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>253100.1970910114</v>
+        <v>295113.0133500406</v>
       </c>
     </row>
     <row r="3">
@@ -10947,28 +10947,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.61526543324511</v>
+        <v>125.1168731007931</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.2980008810563</v>
+        <v>171.190425543306</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.2899109724505</v>
+        <v>154.8522515967718</v>
       </c>
       <c r="AD3" t="n">
-        <v>99615.26543324512</v>
+        <v>125116.8731007931</v>
       </c>
       <c r="AE3" t="n">
-        <v>136298.0008810563</v>
+        <v>171190.425543306</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.35293807470904e-06</v>
+        <v>9.225539830301043e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.8625</v>
       </c>
       <c r="AH3" t="n">
-        <v>123289.9109724505</v>
+        <v>154852.2515967718</v>
       </c>
     </row>
   </sheetData>
@@ -11244,28 +11244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.4796537427772</v>
+        <v>247.1736375643434</v>
       </c>
       <c r="AB2" t="n">
-        <v>279.7780832563911</v>
+        <v>338.1938754466623</v>
       </c>
       <c r="AC2" t="n">
-        <v>253.0764556614895</v>
+        <v>305.9171266322188</v>
       </c>
       <c r="AD2" t="n">
-        <v>204479.6537427772</v>
+        <v>247173.6375643433</v>
       </c>
       <c r="AE2" t="n">
-        <v>279778.0832563912</v>
+        <v>338193.8754466622</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.377784254001025e-06</v>
+        <v>5.630565106270453e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.75208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>253076.4556614895</v>
+        <v>305917.1266322188</v>
       </c>
     </row>
   </sheetData>
@@ -11541,28 +11541,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.9737845273319</v>
+        <v>128.8014074547792</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.6297631067602</v>
+        <v>176.2317679966108</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.9219401015285</v>
+        <v>159.4124554019033</v>
       </c>
       <c r="AD2" t="n">
-        <v>104973.7845273319</v>
+        <v>128801.4074547792</v>
       </c>
       <c r="AE2" t="n">
-        <v>143629.7631067602</v>
+        <v>176231.7679966108</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.071974405720799e-06</v>
+        <v>9.240978054992033e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.602083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>129921.9401015285</v>
+        <v>159412.4554019033</v>
       </c>
     </row>
   </sheetData>
@@ -11838,28 +11838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.9962864105799</v>
+        <v>132.3243576690809</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.7652835267903</v>
+        <v>181.0520239014104</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.6627722569115</v>
+        <v>163.772672848422</v>
       </c>
       <c r="AD2" t="n">
-        <v>107996.2864105799</v>
+        <v>132324.3576690809</v>
       </c>
       <c r="AE2" t="n">
-        <v>147765.2835267903</v>
+        <v>181052.0239014104</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.111873363229486e-06</v>
+        <v>9.124481104469549e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.358333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>133662.7722569115</v>
+        <v>163772.672848422</v>
       </c>
     </row>
     <row r="3">
@@ -11944,28 +11944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.7200101020461</v>
+        <v>121.0525419166593</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.2825377423469</v>
+        <v>165.6294283115399</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.6078534385608</v>
+        <v>149.821988135895</v>
       </c>
       <c r="AD3" t="n">
-        <v>104720.0101020461</v>
+        <v>121052.5419166593</v>
       </c>
       <c r="AE3" t="n">
-        <v>143282.5377423469</v>
+        <v>165629.4283115399</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.287805510511828e-06</v>
+        <v>9.387132088569496e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>129607.8534385608</v>
+        <v>149821.988135895</v>
       </c>
     </row>
   </sheetData>
